--- a/samples/charts/sbk-file-rocksdb-read.xlsx
+++ b/samples/charts/sbk-file-rocksdb-read.xlsx
@@ -49,6 +49,13 @@
     <sheet name="Percentile_99.9" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="Percentile_99.95" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="Percentile_99.99" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Total_Percentiles_1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Total_Percentiles_2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Total_MB" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Total_Throughput_MB" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Total_Throughput_Records" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Total_Avg_Latency" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Total_Max_Latency" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5273,6 +5280,288 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_FILE_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$Y$1:$AD$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$Y$2:$AD$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2_ROCKSDB_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'T2'!$Y$2:$AD$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_FILE_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$AD$1:$AS$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$AD$2:$AS$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2_ROCKSDB_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'T2'!$AD$2:$AS$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -5440,6 +5729,616 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Mega Bytes Reading</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$N$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2-ROCKSDB-MB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T2'!$N$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>MB</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Mega Bytes / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$Q$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2-ROCKSDB-MB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T2'!$Q$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in MB/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Records / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-Records/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$P$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2-ROCKSDB-Records/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T2'!$P$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in Records/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Average Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-AvgLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$R$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2-ROCKSDB-AvgLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T2'!$R$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Average Latency</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Max Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MaxLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$S$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T2-ROCKSDB-MaxLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T2'!$S$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Max Latency</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -7922,6 +8821,33 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -7932,6 +8858,168 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="25200000" cy="25200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -16526,6 +17614,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -16966,6 +18168,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -16994,7 +18215,7 @@
     <row r="8">
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>SBK Version : 0.96</t>
+          <t>SBK Version : 0.991</t>
         </is>
       </c>
     </row>
